--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1st Semester\VLSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CECB94-16D0-46B6-BB8F-CC159414CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="11712" yWindow="4560" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>Carry Save Adder</t>
   </si>
@@ -72,12 +73,42 @@
   </si>
   <si>
     <t>Carry Select Adder</t>
+  </si>
+  <si>
+    <t>Ripple Carry Adder</t>
+  </si>
+  <si>
+    <t>-----+-----------+-----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     |Unit       |Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1    |Time       |ns   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2    |Capacitance|ff   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3    |Resistance |kohm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4    |Power      |nW   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5    |Voltage    |V    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6    |Current    |mA   </t>
+  </si>
+  <si>
+    <t>Simple Adder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,13 +173,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A14:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,376 +478,600 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>19500</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2582.9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16917.099999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.3133579999999991</v>
+      </c>
+      <c r="E17" s="1">
+        <v>17.327546999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.2053859999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>29.846291999999998</v>
+      </c>
+      <c r="H17" s="1">
+        <v>161</v>
+      </c>
+      <c r="I17" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>19500</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2582.9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16917.099999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.3133579999999991</v>
+      </c>
+      <c r="E25" s="1">
+        <v>17.327546999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4.2053859999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>29.846291999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>161</v>
+      </c>
+      <c r="I25" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>19500</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B32" s="1">
         <v>2582.1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C32" s="1">
         <v>16917.900000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D32" s="1">
         <v>16.183603000000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E32" s="1">
         <v>31.498101999999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F32" s="1">
         <v>8.2003210000000006</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G32" s="1">
         <v>55.882022999999997</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H32" s="1">
         <v>314</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I32" s="1">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>19500</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B37" s="1">
         <v>2841.6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C37" s="1">
         <v>16658.400000000001</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D37" s="1">
         <v>6.8695329999999997</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E37" s="1">
         <v>20.417660000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F37" s="1">
         <v>3.5430000000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G37" s="1">
         <v>30.830193000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H37" s="1">
         <v>120</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I37" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>19500</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B42" s="1">
         <v>2339.6999999999998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C42" s="1">
         <v>17160.3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D42" s="1">
         <v>10.643272</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E42" s="1">
         <v>18.815377999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F42" s="1">
         <v>5.5814250000000003</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G42" s="1">
         <v>35.040076999999997</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H42" s="1">
         <v>203</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I42" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="I45" s="4"/>
+      <c r="N45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>19500</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B47" s="1">
         <v>1813.2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C47" s="1">
         <v>17686.8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D47" s="1">
         <v>16.417072000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E47" s="1">
         <v>24.459493999999999</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F47" s="1">
         <v>8.1156229999999994</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G47" s="1">
         <v>48.992190999999998</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H47" s="1">
         <v>294</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I47" s="1">
         <v>372</v>
       </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N51" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="24">
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CECB94-16D0-46B6-BB8F-CC159414CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEBFD5-5D91-4D66-8779-D915C10BDFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11712" yWindow="4560" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A14:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,28 +542,28 @@
         <v>19500</v>
       </c>
       <c r="B17" s="1">
-        <v>2582.9</v>
+        <v>3313.3</v>
       </c>
       <c r="C17" s="1">
-        <v>16917.099999999999</v>
+        <v>16186.7</v>
       </c>
       <c r="D17" s="1">
-        <v>8.3133579999999991</v>
+        <v>5.8358679999999996</v>
       </c>
       <c r="E17" s="1">
-        <v>17.327546999999999</v>
+        <v>7.5817730000000001</v>
       </c>
       <c r="F17" s="1">
         <v>4.2053859999999998</v>
       </c>
       <c r="G17" s="1">
-        <v>29.846291999999998</v>
+        <v>2.409859</v>
       </c>
       <c r="H17" s="1">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP #3\VLSI\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEBFD5-5D91-4D66-8779-D915C10BDFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE0B0B1-CBD5-4F4E-ABC6-231997CACFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11712" yWindow="4560" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
   <si>
     <t>Carry Save Adder</t>
   </si>
@@ -78,38 +78,20 @@
     <t>Ripple Carry Adder</t>
   </si>
   <si>
-    <t>-----+-----------+-----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     |Unit       |Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1    |Time       |ns   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2    |Capacitance|ff   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3    |Resistance |kohm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4    |Power      |nW   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5    |Voltage    |V    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6    |Current    |mA   </t>
-  </si>
-  <si>
     <t>Simple Adder</t>
+  </si>
+  <si>
+    <t>Carry Skip Adder</t>
+  </si>
+  <si>
+    <t>Carry Bypass Adder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +114,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -168,18 +162,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A14:N51"/>
+  <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,150 +478,414 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>19500</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B5" s="1">
         <v>3313.3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C5" s="1">
         <v>16186.7</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D5" s="1">
         <v>5.8358679999999996</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E5" s="1">
         <v>7.5817730000000001</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F5" s="1">
         <v>4.2053859999999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G5" s="1">
         <v>2.409859</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H5" s="1">
         <v>32</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I5" s="1">
         <v>135</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>19500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2582.9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16917.099999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.3133579999999991</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17.327546999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.2053859999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>29.846291999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>19500</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2582.1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16917.900000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16.183603000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31.498101999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8.2003210000000006</v>
+      </c>
+      <c r="G15" s="1">
+        <v>55.882022999999997</v>
+      </c>
+      <c r="H15" s="1">
+        <v>314</v>
+      </c>
+      <c r="I15" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2841.6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16658.400000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.8695329999999997</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20.417660000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>30.830193000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>120</v>
+      </c>
+      <c r="I20" s="4">
+        <v>153</v>
+      </c>
+    </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -630,448 +894,328 @@
         <v>19500</v>
       </c>
       <c r="B25" s="1">
-        <v>2582.9</v>
+        <v>2339.6999999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>16917.099999999999</v>
+        <v>17160.3</v>
       </c>
       <c r="D25" s="1">
-        <v>8.3133579999999991</v>
+        <v>10.643272</v>
       </c>
       <c r="E25" s="1">
-        <v>17.327546999999999</v>
+        <v>18.815377999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>4.2053859999999998</v>
+        <v>5.5814250000000003</v>
       </c>
       <c r="G25" s="1">
-        <v>29.846291999999998</v>
+        <v>35.040076999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="I25" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>19500</v>
       </c>
-      <c r="B32" s="1">
-        <v>2582.1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>16917.900000000001</v>
-      </c>
-      <c r="D32" s="1">
-        <v>16.183603000000002</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31.498101999999999</v>
-      </c>
-      <c r="F32" s="1">
-        <v>8.2003210000000006</v>
-      </c>
-      <c r="G32" s="1">
-        <v>55.882022999999997</v>
-      </c>
-      <c r="H32" s="1">
-        <v>314</v>
-      </c>
-      <c r="I32" s="1">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="B30" s="5">
+        <v>1813.2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>17686.8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>16.417072000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>24.459493999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8.1156229999999994</v>
+      </c>
+      <c r="G30" s="1">
+        <v>48.992190999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <v>294</v>
+      </c>
+      <c r="I30" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>19500</v>
       </c>
-      <c r="B37" s="1">
-        <v>2841.6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>16658.400000000001</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6.8695329999999997</v>
-      </c>
-      <c r="E37" s="1">
-        <v>20.417660000000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3.5430000000000001</v>
-      </c>
-      <c r="G37" s="1">
-        <v>30.830193000000001</v>
-      </c>
-      <c r="H37" s="1">
-        <v>120</v>
-      </c>
-      <c r="I37" s="1">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="B35" s="1">
+        <v>2948.6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16551.400000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>11.289037</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20.052513000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5.850301</v>
+      </c>
+      <c r="G35" s="1">
+        <v>37.191853000000002</v>
+      </c>
+      <c r="H35" s="1">
+        <v>207</v>
+      </c>
+      <c r="I35" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E39" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I39" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>19500</v>
       </c>
-      <c r="B42" s="1">
-        <v>2339.6999999999998</v>
-      </c>
-      <c r="C42" s="1">
-        <v>17160.3</v>
-      </c>
-      <c r="D42" s="1">
-        <v>10.643272</v>
-      </c>
-      <c r="E42" s="1">
-        <v>18.815377999999999</v>
-      </c>
-      <c r="F42" s="1">
-        <v>5.5814250000000003</v>
-      </c>
-      <c r="G42" s="1">
-        <v>35.040076999999997</v>
-      </c>
-      <c r="H42" s="1">
-        <v>203</v>
-      </c>
-      <c r="I42" s="1">
-        <v>247</v>
-      </c>
-      <c r="N42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="N44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="N45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>19500</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1813.2</v>
-      </c>
-      <c r="C47" s="1">
-        <v>17686.8</v>
-      </c>
-      <c r="D47" s="1">
-        <v>16.417072000000001</v>
-      </c>
-      <c r="E47" s="1">
-        <v>24.459493999999999</v>
-      </c>
-      <c r="F47" s="1">
-        <v>8.1156229999999994</v>
-      </c>
-      <c r="G47" s="1">
-        <v>48.992190999999998</v>
-      </c>
-      <c r="H47" s="1">
-        <v>294</v>
-      </c>
-      <c r="I47" s="1">
-        <v>372</v>
-      </c>
-      <c r="N47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N51" t="s">
-        <v>17</v>
+      <c r="B40" s="6">
+        <v>2705.4</v>
+      </c>
+      <c r="C40" s="6">
+        <v>16794.599999999999</v>
+      </c>
+      <c r="D40" s="6">
+        <v>10.985931000000001</v>
+      </c>
+      <c r="E40" s="6">
+        <v>19.802009999999999</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5.6667160000000001</v>
+      </c>
+      <c r="G40" s="6">
+        <v>36.454655000000002</v>
+      </c>
+      <c r="H40" s="6">
+        <v>207</v>
+      </c>
+      <c r="I40" s="6">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="32">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP #3\VLSI\VLSI-Projects\Project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE0B0B1-CBD5-4F4E-ABC6-231997CACFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01492A-59B0-4188-8BA5-6CD9744F82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11712" yWindow="3372" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t>Carry Save Adder</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Carry Bypass Adder</t>
+  </si>
+  <si>
+    <t>Floating Point Adder CLA</t>
   </si>
 </sst>
 </file>
@@ -167,12 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,6 +177,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I40"/>
+  <dimension ref="A2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,34 +482,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -567,34 +570,34 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -655,34 +658,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -743,34 +746,34 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -820,45 +823,45 @@
       <c r="F20" s="1">
         <v>3.5430000000000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>30.830193000000001</v>
       </c>
       <c r="H20" s="1">
         <v>120</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -919,34 +922,34 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -981,10 +984,10 @@
       <c r="A30" s="1">
         <v>19500</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>1813.2</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>17686.8</v>
       </c>
       <c r="D30" s="1">
@@ -1007,34 +1010,34 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1095,103 +1098,200 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>19500</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>2705.4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>16794.599999999999</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>10.985931000000001</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <v>19.802009999999999</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>5.6667160000000001</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <v>36.454655000000002</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="4">
         <v>207</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4">
         <v>257</v>
       </c>
     </row>
+    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>19500</v>
+      </c>
+      <c r="B51" s="4">
+        <v>3721.4</v>
+      </c>
+      <c r="C51" s="4">
+        <v>15778.6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>32.931663999999998</v>
+      </c>
+      <c r="E51" s="4">
+        <v>103.07506600000001</v>
+      </c>
+      <c r="F51" s="4">
+        <v>21.656927</v>
+      </c>
+      <c r="G51" s="4">
+        <v>157.66365099999999</v>
+      </c>
+      <c r="H51" s="4">
+        <v>781</v>
+      </c>
+      <c r="I51" s="4">
+        <v>957</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
+  <mergeCells count="36">
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A17:I17"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:G28"/>
@@ -1203,19 +1303,14 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01492A-59B0-4188-8BA5-6CD9744F82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E847A-1D67-4118-B113-11F2E02F1E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11712" yWindow="3372" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,10 +179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,34 +482,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -570,34 +570,34 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -658,34 +658,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -746,34 +746,34 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -834,34 +834,34 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -922,34 +922,34 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1010,34 +1010,34 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1098,34 +1098,34 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1186,34 +1186,34 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
@@ -1249,56 +1249,32 @@
         <v>19500</v>
       </c>
       <c r="B51" s="4">
-        <v>3721.4</v>
+        <v>2433.3000000000002</v>
       </c>
       <c r="C51" s="4">
-        <v>15778.6</v>
+        <v>17066.7</v>
       </c>
       <c r="D51" s="4">
-        <v>32.931663999999998</v>
+        <v>23.135798000000001</v>
       </c>
       <c r="E51" s="4">
-        <v>103.07506600000001</v>
+        <v>100.135193</v>
       </c>
       <c r="F51" s="4">
-        <v>21.656927</v>
+        <v>22.582581999999999</v>
       </c>
       <c r="G51" s="4">
-        <v>157.66365099999999</v>
+        <v>145.85356100000001</v>
       </c>
       <c r="H51" s="4">
-        <v>781</v>
+        <v>831</v>
       </c>
       <c r="I51" s="4">
-        <v>957</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:G23"/>
@@ -1311,6 +1287,30 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E847A-1D67-4118-B113-11F2E02F1E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E699594-BD34-422F-B815-92A549C8D5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11712" yWindow="3372" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="48" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
   <si>
     <t>Carry Save Adder</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Floating Point Adder CLA</t>
+  </si>
+  <si>
+    <t>max slack</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,11 +164,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +197,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I51"/>
+  <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +498,7 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -494,7 +511,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -511,7 +528,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,8 +556,11 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>19500</v>
       </c>
@@ -568,8 +588,11 @@
       <c r="I5" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>18404.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -582,7 +605,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -599,7 +622,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,8 +650,11 @@
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>19500</v>
       </c>
@@ -656,8 +682,11 @@
       <c r="I10" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>18406.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -670,7 +699,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -687,7 +716,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>19500</v>
       </c>
@@ -1198,7 +1227,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>9</v>
       </c>
@@ -1215,7 +1244,7 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
@@ -1243,8 +1272,11 @@
       <c r="I50" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>19500</v>
       </c>
@@ -1272,29 +1304,12 @@
       <c r="I51" s="4">
         <v>944</v>
       </c>
+      <c r="J51" s="7">
+        <v>17948.599999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:G49"/>
@@ -1311,6 +1326,26 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\academic_material\third_year\VLSI\repos\VLSI-Projects\Project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E699594-BD34-422F-B815-92A549C8D5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="48" windowWidth="8940" windowHeight="9588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="48" windowWidth="8940" windowHeight="9588" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="26">
   <si>
     <t>Carry Save Adder</t>
   </si>
@@ -91,13 +91,25 @@
   </si>
   <si>
     <t>max slack</t>
+  </si>
+  <si>
+    <t>Min Slack</t>
+  </si>
+  <si>
+    <t>Max Slack</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Floating Point Adder using CLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +138,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,13 +219,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,34 +548,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -556,7 +605,7 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -593,34 +642,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -650,7 +699,7 @@
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -687,34 +736,34 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -775,34 +824,34 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -863,34 +912,34 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -951,34 +1000,34 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1039,34 +1088,34 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="6"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1127,34 +1176,34 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1215,34 +1264,34 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="6"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
@@ -1272,7 +1321,7 @@
       <c r="I50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1304,12 +1353,32 @@
       <c r="I51" s="4">
         <v>944</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>17948.599999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:G49"/>
@@ -1326,26 +1395,402 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="9"/>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3313.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16186.7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>18404.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.8358679999999996</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7.5817730000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.2053859999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>17.623027</v>
+      </c>
+      <c r="L7" s="4">
+        <v>32</v>
+      </c>
+      <c r="M7" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2582.9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>16917.099999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <v>18406.5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>8.3133579999999991</v>
+      </c>
+      <c r="I8" s="4">
+        <v>17.327546999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4.2053859999999998</v>
+      </c>
+      <c r="K8" s="4">
+        <v>29.846291999999998</v>
+      </c>
+      <c r="L8" s="4">
+        <v>161</v>
+      </c>
+      <c r="M8" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2582.1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>16917.900000000001</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>16.183603000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>31.498101999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>8.2003210000000006</v>
+      </c>
+      <c r="K9" s="4">
+        <v>55.882022999999997</v>
+      </c>
+      <c r="L9" s="4">
+        <v>314</v>
+      </c>
+      <c r="M9" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2841.6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>16658.400000000001</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>6.8695329999999997</v>
+      </c>
+      <c r="I10" s="4">
+        <v>20.417660000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>30.830193000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <v>120</v>
+      </c>
+      <c r="M10" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2339.6999999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>17160.3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>18431</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10.643272</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18.815377999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.5814250000000003</v>
+      </c>
+      <c r="K11" s="4">
+        <v>35.040076999999997</v>
+      </c>
+      <c r="L11" s="4">
+        <v>203</v>
+      </c>
+      <c r="M11" s="4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1813.2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>17686.8</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="4">
+        <v>16.417072000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>24.459493999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8.1156229999999994</v>
+      </c>
+      <c r="K12" s="4">
+        <v>48.992190999999998</v>
+      </c>
+      <c r="L12" s="4">
+        <v>294</v>
+      </c>
+      <c r="M12" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2948.6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>16551.400000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>18431</v>
+      </c>
+      <c r="H13" s="4">
+        <v>11.289037</v>
+      </c>
+      <c r="I13" s="4">
+        <v>20.052513000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5.850301</v>
+      </c>
+      <c r="K13" s="4">
+        <v>37.191853000000002</v>
+      </c>
+      <c r="L13" s="4">
+        <v>207</v>
+      </c>
+      <c r="M13" s="4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>19500</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2705.4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>16794.599999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>18431</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10.985931000000001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>19.802009999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5.6667160000000001</v>
+      </c>
+      <c r="K14" s="4">
+        <v>36.454655000000002</v>
+      </c>
+      <c r="L14" s="4">
+        <v>207</v>
+      </c>
+      <c r="M14" s="4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2433.3000000000002</v>
+      </c>
+      <c r="F15" s="15">
+        <v>17066.7</v>
+      </c>
+      <c r="G15" s="16">
+        <v>17948.599999999999</v>
+      </c>
+      <c r="H15" s="15">
+        <v>23.135798000000001</v>
+      </c>
+      <c r="I15" s="15">
+        <v>100.135193</v>
+      </c>
+      <c r="J15" s="15">
+        <v>22.582581999999999</v>
+      </c>
+      <c r="K15" s="15">
+        <v>145.85356100000001</v>
+      </c>
+      <c r="L15" s="15">
+        <v>831</v>
+      </c>
+      <c r="M15" s="15">
+        <v>944</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project_1/Reports.xlsx
+++ b/Project_1/Reports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\VLSI-Projects\Project_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP #3\VLSI\VLSI-Projects\Project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE25345-5E1E-4620-8601-0CD773F4C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="48" windowWidth="8940" windowHeight="9588" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,29 +217,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,8 +234,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J51"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
@@ -548,34 +540,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -605,7 +597,7 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -642,34 +634,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -699,7 +691,7 @@
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -736,34 +728,34 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -824,34 +816,34 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -912,34 +904,34 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1000,34 +992,34 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1088,34 +1080,34 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1176,209 +1168,189 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>19500</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="1">
         <v>2705.4</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>16794.599999999999</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <v>10.985931000000001</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>19.802009999999999</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>5.6667160000000001</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>36.454655000000002</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="1">
         <v>207</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="1">
         <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>19500</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="1">
         <v>2433.3000000000002</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>17066.7</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <v>23.135798000000001</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>100.135193</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>22.582581999999999</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>145.85356100000001</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="1">
         <v>831</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="1">
         <v>944</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>17948.599999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:G49"/>
@@ -1395,6 +1367,26 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1402,11 +1394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,365 +1415,371 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="9"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>19500</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>3313.3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>16186.7</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>18404.5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>5.8358679999999996</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>7.5817730000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>4.2053859999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>17.623027</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>32</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>19500</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>2582.9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>16917.099999999999</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>18406.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>8.3133579999999991</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>17.327546999999999</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>4.2053859999999998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>29.846291999999998</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>161</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>19500</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>2582.1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>16917.900000000001</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="G9" s="1">
+        <v>18405.900000000001</v>
+      </c>
+      <c r="H9" s="1">
         <v>16.183603000000002</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>31.498101999999999</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>8.2003210000000006</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>55.882022999999997</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>314</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>368</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>19500</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>2841.6</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>16658.400000000001</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="G10" s="1">
+        <v>18363.599999999999</v>
+      </c>
+      <c r="H10" s="1">
         <v>6.8695329999999997</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>20.417660000000001</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>3.5430000000000001</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="7">
         <v>30.830193000000001</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>120</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="7">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>19500</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>2339.6999999999998</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>17160.3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
+        <v>18431.400000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10.643272</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18.815377999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.5814250000000003</v>
+      </c>
+      <c r="K11" s="1">
+        <v>35.040076999999997</v>
+      </c>
+      <c r="L11" s="1">
+        <v>203</v>
+      </c>
+      <c r="M11" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19500</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1813.2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>17686.8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18430.599999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>16.417072000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>24.459493999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.1156229999999994</v>
+      </c>
+      <c r="K12" s="1">
+        <v>48.992190999999998</v>
+      </c>
+      <c r="L12" s="1">
+        <v>294</v>
+      </c>
+      <c r="M12" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2948.6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>16551.400000000001</v>
+      </c>
+      <c r="G13" s="1">
         <v>18431</v>
       </c>
-      <c r="H11" s="4">
-        <v>10.643272</v>
-      </c>
-      <c r="I11" s="4">
-        <v>18.815377999999999</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5.5814250000000003</v>
-      </c>
-      <c r="K11" s="4">
-        <v>35.040076999999997</v>
-      </c>
-      <c r="L11" s="4">
-        <v>203</v>
-      </c>
-      <c r="M11" s="4">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="H13" s="1">
+        <v>11.289037</v>
+      </c>
+      <c r="I13" s="1">
+        <v>20.052513000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5.850301</v>
+      </c>
+      <c r="K13" s="1">
+        <v>37.191853000000002</v>
+      </c>
+      <c r="L13" s="1">
+        <v>207</v>
+      </c>
+      <c r="M13" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
         <v>19500</v>
       </c>
-      <c r="E12" s="13">
-        <v>1813.2</v>
-      </c>
-      <c r="F12" s="11">
-        <v>17686.8</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4">
-        <v>16.417072000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>24.459493999999999</v>
-      </c>
-      <c r="J12" s="4">
-        <v>8.1156229999999994</v>
-      </c>
-      <c r="K12" s="4">
-        <v>48.992190999999998</v>
-      </c>
-      <c r="L12" s="4">
-        <v>294</v>
-      </c>
-      <c r="M12" s="4">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="E14" s="1">
+        <v>2705.4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16794.599999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>18431</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10.985931000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>19.802009999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5.6667160000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>36.454655000000002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>207</v>
+      </c>
+      <c r="M14" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10">
         <v>19500</v>
       </c>
-      <c r="E13" s="4">
-        <v>2948.6</v>
-      </c>
-      <c r="F13" s="4">
-        <v>16551.400000000001</v>
-      </c>
-      <c r="G13" s="4">
-        <v>18431</v>
-      </c>
-      <c r="H13" s="4">
-        <v>11.289037</v>
-      </c>
-      <c r="I13" s="4">
-        <v>20.052513000000001</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5.850301</v>
-      </c>
-      <c r="K13" s="4">
-        <v>37.191853000000002</v>
-      </c>
-      <c r="L13" s="4">
-        <v>207</v>
-      </c>
-      <c r="M13" s="4">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4">
-        <v>19500</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2705.4</v>
-      </c>
-      <c r="F14" s="4">
-        <v>16794.599999999999</v>
-      </c>
-      <c r="G14" s="4">
-        <v>18431</v>
-      </c>
-      <c r="H14" s="4">
-        <v>10.985931000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>19.802009999999999</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5.6667160000000001</v>
-      </c>
-      <c r="K14" s="4">
-        <v>36.454655000000002</v>
-      </c>
-      <c r="L14" s="4">
-        <v>207</v>
-      </c>
-      <c r="M14" s="4">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="15">
-        <v>19500</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <v>2433.3000000000002</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="10">
         <v>17066.7</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="10">
         <v>17948.599999999999</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <v>23.135798000000001</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="10">
         <v>100.135193</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="10">
         <v>22.582581999999999</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="10">
         <v>145.85356100000001</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="10">
         <v>831</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="10">
         <v>944</v>
       </c>
     </row>
